--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology-example/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology-example/StructureDefinition-jp-diagnosticreport-endoscopy.xlsx
@@ -618,7 +618,7 @@
     <t>診断レポートの分野を表すコード。【詳細参照】</t>
   </si>
   <si>
-    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。</t>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード</t>
   </si>
   <si>
     <t>JP_DiagnosticReportCategory_VSの中から「LP7796-8」（Endoscopy（内視鏡））を指定する。</t>
